--- a/PhanChiaCongViec.xlsx
+++ b/PhanChiaCongViec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Họ tên</t>
   </si>
@@ -39,10 +39,13 @@
     <t>BC45</t>
   </si>
   <si>
-    <t>page Login và page Register</t>
-  </si>
-  <si>
     <t>page Index và page Detail</t>
+  </si>
+  <si>
+    <t>page Login và page Register, Responsive</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -106,13 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +120,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,25 +405,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -427,38 +433,47 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
